--- a/LESR_MainBoard/Production_Files/BOM-LESR_MainBoard.xlsx
+++ b/LESR_MainBoard/Production_Files/BOM-LESR_MainBoard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eagle_projects_directory\Florian_PCB\LESR_MainBoard\Production_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47FBBB9-F871-4469-9F5F-BBAF9B3DD265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080EE7A7-63AC-4C25-AE10-B195EE4DEE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,15 +289,6 @@
     <t>ADD_UART</t>
   </si>
   <si>
-    <t>CONN HEADER SMD 2POS 1MM</t>
-  </si>
-  <si>
-    <t>BM02B-SRSS-TB(LF)(SN)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/short/z923mr</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -449,6 +440,15 @@
   </si>
   <si>
     <t>https://www.digikey.in/short/zbqbjv</t>
+  </si>
+  <si>
+    <t>B2B-PH-SM4-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t>CONN HEADER SMD 2POS 2MM</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/short/z5tv78</t>
   </si>
 </sst>
 </file>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1257,22 +1257,22 @@
         <v>1</v>
       </c>
       <c r="D11" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="44" t="s">
         <v>104</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="27.6">
@@ -1376,10 +1376,10 @@
         <v>21</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>9</v>
@@ -1388,7 +1388,7 @@
         <v>9</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="72">
@@ -1396,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="30">
         <v>1</v>
@@ -1404,16 +1404,16 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="26.4">
@@ -1421,28 +1421,28 @@
         <v>11</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C17" s="30">
         <v>2</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="H17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="14.4">
@@ -1450,28 +1450,28 @@
         <v>12</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C18" s="30">
         <v>1</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="H18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.4">
@@ -1479,7 +1479,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
@@ -1488,19 +1488,19 @@
         <v>15</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>77</v>
-      </c>
       <c r="H19" s="33" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.4">
@@ -1508,7 +1508,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" s="24">
         <v>2</v>
@@ -1517,19 +1517,19 @@
         <v>15</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="34" t="s">
         <v>77</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.4">
@@ -1537,7 +1537,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
@@ -1546,19 +1546,19 @@
         <v>15</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H21" s="33" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.4">
@@ -1566,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C22" s="7">
         <v>6</v>
@@ -1575,19 +1575,19 @@
         <v>16</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>9</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.4">
@@ -1595,7 +1595,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="29">
         <v>1</v>
@@ -1604,19 +1604,19 @@
         <v>16</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>9</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="27.6">
@@ -1624,28 +1624,28 @@
         <v>18</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C24" s="29">
         <v>1</v>
       </c>
       <c r="D24" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="34" t="s">
         <v>94</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1667,7 +1667,7 @@
     <row r="29" spans="1:9" s="1" customFormat="1">
       <c r="A29" s="3"/>
       <c r="B29" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1679,12 +1679,12 @@
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1714,8 +1714,9 @@
     <hyperlink ref="I12" r:id="rId3" xr:uid="{D3D54780-90B7-44B3-ADFC-098C5E5D7909}"/>
     <hyperlink ref="I16" r:id="rId4" xr:uid="{93EA93DC-3191-4A3E-955D-E9DA7F4BEE9F}"/>
     <hyperlink ref="I11" r:id="rId5" xr:uid="{A7FA1B1B-E5A8-4D74-8D4D-92476E0EC2A4}"/>
+    <hyperlink ref="I15" r:id="rId6" xr:uid="{7C8A2B33-CE88-484F-BADC-27847E6569F1}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>